--- a/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t189.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t189.xlsx
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1943</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1936</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0457</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.0553</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1943</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1936</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0553</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0457</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -681,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0365</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.0152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -716,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0354</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.0147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0365</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.0354</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0152</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.0147</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -845,25 +845,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1931</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1924</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0457</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.056</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1931</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1924</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.056</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0457</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0067</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0069</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0067</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1076,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0364</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.0152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0069</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0352</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.0146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0364</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.0352</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0152</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.0146</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5279</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1445</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1360,16 +1360,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1442</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1395,16 +1395,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5279</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1450,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.3809</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1445</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1442</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1520,22 +1520,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.3809</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0614</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0613</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2954</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2954</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0165</v>
+        <v>0.0271</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0165</v>
+        <v>0.0271</v>
       </c>
       <c r="I10">
-        <v>0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="J10">
         <v>1</v>

--- a/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t189.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t189.xlsx
@@ -462,13 +462,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0457</v>
+        <v>0.0254</v>
       </c>
       <c r="H2">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.0297</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.0309</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.0297</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.0309</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0457</v>
+        <v>0.0254</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.2528</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.122</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -742,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.2528</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.122</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.0022</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0457</v>
+        <v>0.0254</v>
       </c>
       <c r="H2">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.0297</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.0309</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.0297</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.0309</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0457</v>
+        <v>0.0254</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.2528</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.122</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.2528</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.122</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.0022</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1284,22 +1284,22 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.0004</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1319,22 +1319,22 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.0194</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1445</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1354,22 +1354,22 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.0175</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1442</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.0004</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.0194</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.0175</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1395,16 +1395,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.007</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.1399</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1430,16 +1430,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.007</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1445</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1442</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.1399</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.2113</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1520,25 +1520,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.2113</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1555,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0614</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0613</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.0155</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1673,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07049999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07049999999999999</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1863,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.0114</v>
       </c>
       <c r="J8">
-        <v>0.0271</v>
+        <v>0.0776</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.0114</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0026</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1930,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0271</v>
+        <v>0.0776</v>
       </c>
       <c r="I10">
-        <v>0.0026</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>

--- a/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t189.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t189.xlsx
@@ -10,14 +10,15 @@
     <sheet name="annualised_return" sheetId="1" r:id="rId1"/>
     <sheet name="mean_period_return" sheetId="2" r:id="rId2"/>
     <sheet name="sharpe_annualized" sheetId="3" r:id="rId3"/>
-    <sheet name="VaR" sheetId="4" r:id="rId4"/>
+    <sheet name="sharpe_period" sheetId="4" r:id="rId4"/>
+    <sheet name="VaR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
   <si>
     <t>minvar_ports_equalw</t>
   </si>
@@ -450,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -459,10 +460,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1086</v>
       </c>
       <c r="G2">
-        <v>0.0254</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -482,19 +483,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0297</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0309</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -520,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0297</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -529,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -544,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -555,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0309</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -564,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -579,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -587,16 +588,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1086</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -622,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0254</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -640,13 +641,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5229</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -672,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.5229</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.302</v>
       </c>
       <c r="J8">
-        <v>0.2528</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -710,16 +711,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.302</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.122</v>
+        <v>0.2281</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.2528</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.122</v>
+        <v>0.2281</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -768,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -780,13 +781,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -845,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -854,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1086</v>
       </c>
       <c r="G2">
-        <v>0.0254</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -877,19 +878,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0297</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0309</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -915,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0297</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -924,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -939,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -950,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0309</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -959,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -974,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -982,16 +983,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1086</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1017,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0254</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1035,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5229</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1067,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.5229</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.302</v>
       </c>
       <c r="J8">
-        <v>0.2528</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1105,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.302</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.122</v>
+        <v>0.2281</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1137,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.2528</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.122</v>
+        <v>0.2281</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1163,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1175,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1278,13 +1279,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0004</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1299,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1310,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1319,19 +1320,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0194</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1345,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1354,19 +1355,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0175</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1380,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0004</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0194</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0175</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1395,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1399</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0155</v>
+        <v>0.3249</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1430,16 +1431,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.465</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1453,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1471,10 +1472,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1488,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.1399</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1506,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.2113</v>
+        <v>0.0321</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1523,28 +1524,28 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.465</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="I10">
-        <v>0.2113</v>
+        <v>0.0321</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1555,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1564,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0155</v>
+        <v>0.3249</v>
       </c>
       <c r="G11">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1694,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1720,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1755,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1799,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7436</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1848,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1863,10 +1864,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.0114</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0776</v>
+        <v>0.0008</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1883,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1895,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0114</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.033</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1918,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1930,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0776</v>
+        <v>0.0008</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.033</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1950,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1959,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.7436</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1972,6 +1973,401 @@
       </c>
       <c r="J11">
         <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.0001</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.0001</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.0001</v>
+      </c>
+      <c r="E7">
+        <v>0.0001</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.4533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.4533</v>
+      </c>
+      <c r="J11">
+        <v>0.592</v>
       </c>
       <c r="K11">
         <v>1</v>
